--- a/z-plugins-bssp/src/main/resources/ems-employee员工管理模块实体类.xlsx
+++ b/z-plugins-bssp/src/main/resources/ems-employee员工管理模块实体类.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19812" windowHeight="7860" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19812" windowHeight="7860" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="规范定义" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1216" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1221" uniqueCount="296">
   <si>
     <t>字段长度定义规范</t>
   </si>
@@ -675,12 +675,6 @@
     <t>员工职级标签关联表</t>
   </si>
   <si>
-    <t>EmployeeRankRelabel</t>
-  </si>
-  <si>
-    <t>EMPLOYEE_RANK_RELABEL</t>
-  </si>
-  <si>
     <t>流水编号</t>
   </si>
   <si>
@@ -956,6 +950,26 @@
   </si>
   <si>
     <t>String</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属目录</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMPLOYEE_RANK_RELABEL</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmployeeRankRelabel</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>belongCatalog</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
@@ -2120,15 +2134,15 @@
     </row>
     <row r="2" spans="1:21" ht="21.6">
       <c r="A2" s="43" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="43" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D2" s="43"/>
       <c r="E2" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>71</v>
@@ -2332,7 +2346,7 @@
         <v>153</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>91</v>
@@ -2364,10 +2378,10 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>91</v>
@@ -2496,10 +2510,10 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>91</v>
@@ -2529,10 +2543,10 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>91</v>
@@ -2562,10 +2576,10 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>91</v>
@@ -2582,10 +2596,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>91</v>
@@ -2602,10 +2616,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="8" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>91</v>
@@ -2622,10 +2636,10 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>91</v>
@@ -2640,10 +2654,10 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>91</v>
@@ -2879,15 +2893,15 @@
     </row>
     <row r="2" spans="1:21" ht="21.6">
       <c r="A2" s="43" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="43" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D2" s="43"/>
       <c r="E2" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>71</v>
@@ -3091,7 +3105,7 @@
         <v>153</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>91</v>
@@ -3123,10 +3137,10 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>91</v>
@@ -3222,7 +3236,7 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>105</v>
@@ -3255,10 +3269,10 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>91</v>
@@ -3288,7 +3302,7 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>107</v>
@@ -3321,10 +3335,10 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>91</v>
@@ -3341,10 +3355,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>110</v>
@@ -3361,10 +3375,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>91</v>
@@ -3379,10 +3393,10 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="8" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>91</v>
@@ -3397,10 +3411,10 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>91</v>
@@ -3415,10 +3429,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>91</v>
@@ -3433,16 +3447,16 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>286</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>288</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
@@ -3451,10 +3465,10 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>91</v>
@@ -3619,7 +3633,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5883,7 +5897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -6641,10 +6655,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U19"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -6710,11 +6724,11 @@
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="43" t="s">
-        <v>205</v>
+        <v>293</v>
       </c>
       <c r="D2" s="43"/>
       <c r="E2" s="2" t="s">
-        <v>206</v>
+        <v>292</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>71</v>
@@ -6918,7 +6932,7 @@
         <v>153</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>91</v>
@@ -6950,7 +6964,7 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>185</v>
@@ -6983,10 +6997,10 @@
     </row>
     <row r="11" spans="1:21" ht="24" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>91</v>
@@ -7016,10 +7030,10 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>91</v>
@@ -7048,26 +7062,26 @@
       <c r="U12" s="17"/>
     </row>
     <row r="13" spans="1:21">
-      <c r="A13" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="A13" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="D13" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="H13" s="8"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="26"/>
       <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
+      <c r="J13" s="17"/>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
       <c r="M13" s="18"/>
@@ -7082,21 +7096,21 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="18"/>
@@ -7115,16 +7129,16 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
@@ -7148,10 +7162,10 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>91</v>
@@ -7165,19 +7179,32 @@
         <v>113</v>
       </c>
       <c r="H16" s="8"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
@@ -7188,16 +7215,16 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
@@ -7207,7 +7234,27 @@
       <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="9" t="s">
         <v>149</v>
       </c>
     </row>
@@ -7230,22 +7277,22 @@
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 I2:J2 E9:E15 G9:G15 H3:H4 L2:L4 S2:U4 N9:S15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 I2:J2 H3:H4 L2:L4 S2:U4 N9:S16 G9:G16 E9:E16">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:L15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:L16">
       <formula1>"文本框,选择框,单选,多选,文本域,日期,搜索框,树图"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K4">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C16">
       <formula1>"String,Integer,BigDecimal"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4">
       <formula1>"List,Info"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K9:K15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K9:K16">
       <formula1>"左对齐,居中,右对齐"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7258,8 +7305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -7321,15 +7368,15 @@
     </row>
     <row r="2" spans="1:21" ht="21.6">
       <c r="A2" s="43" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="43" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D2" s="43"/>
       <c r="E2" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>71</v>
@@ -7533,7 +7580,7 @@
         <v>153</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>91</v>
@@ -7598,7 +7645,7 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>185</v>
@@ -7631,10 +7678,10 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="8" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>110</v>
@@ -7664,10 +7711,10 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>91</v>
@@ -7697,10 +7744,10 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>110</v>
@@ -7730,10 +7777,10 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>91</v>
@@ -7763,13 +7810,13 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>118</v>
@@ -7783,13 +7830,13 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="26" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B17" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="C17" s="26" t="s">
         <v>290</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>292</v>
       </c>
       <c r="D17" s="25">
         <v>40</v>
@@ -7801,10 +7848,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>91</v>
@@ -8044,15 +8091,15 @@
     </row>
     <row r="2" spans="1:21" ht="21.6">
       <c r="A2" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D2" s="43"/>
       <c r="E2" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>71</v>
@@ -8256,7 +8303,7 @@
         <v>153</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>91</v>
@@ -8321,10 +8368,10 @@
     </row>
     <row r="11" spans="1:21" ht="24" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>91</v>
@@ -8633,15 +8680,15 @@
     </row>
     <row r="2" spans="1:21" ht="21.6">
       <c r="A2" s="43" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="43" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D2" s="43"/>
       <c r="E2" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>71</v>
@@ -8845,7 +8892,7 @@
         <v>153</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>91</v>
@@ -8878,7 +8925,7 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>185</v>
@@ -8977,10 +9024,10 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>91</v>
@@ -9008,10 +9055,10 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>91</v>
@@ -9041,10 +9088,10 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>91</v>
@@ -9074,10 +9121,10 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>91</v>
@@ -9094,10 +9141,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>123</v>
@@ -9114,10 +9161,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>91</v>

--- a/z-plugins-bssp/src/main/resources/ems-employee员工管理模块实体类.xlsx
+++ b/z-plugins-bssp/src/main/resources/ems-employee员工管理模块实体类.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" firstSheet="4" activeTab="8"/>
+    <workbookView windowWidth="28800" windowHeight="12645" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="规范定义" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1225" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="297">
   <si>
     <t>字段长度定义规范</t>
   </si>
@@ -826,6 +826,12 @@
     <t>计划考核时间</t>
   </si>
   <si>
+    <t>approveStatus</t>
+  </si>
+  <si>
+    <t>审批状态</t>
+  </si>
+  <si>
     <t>changePerson</t>
   </si>
   <si>
@@ -963,12 +969,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1032,13 +1038,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="文泉驿微米黑"/>
@@ -1058,14 +1057,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="文泉驿微米黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="文泉驿微米黑"/>
       <charset val="134"/>
     </font>
@@ -1077,14 +1076,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1092,21 +1091,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1120,45 +1112,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1167,23 +1120,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1198,15 +1143,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1215,6 +1154,66 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1232,7 +1231,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1277,7 +1276,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1289,175 +1450,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1495,6 +1488,33 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1510,26 +1530,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1560,35 +1571,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1597,151 +1590,151 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="37" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1780,18 +1773,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1807,6 +1788,24 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1820,102 +1819,96 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
+    <cellStyle name="输入" xfId="5" builtinId="20"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
+    <cellStyle name="货币" xfId="8" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
+    <cellStyle name="百分比" xfId="10" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
+    <cellStyle name="计算" xfId="16" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
+    <cellStyle name="适中" xfId="18" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
+    <cellStyle name="好" xfId="20" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
+    <cellStyle name="汇总" xfId="22" builtinId="25"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
+    <cellStyle name="标题" xfId="34" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
+    <cellStyle name="注释" xfId="38" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2208,7 +2201,7 @@
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
       <c r="F1" s="32"/>
-      <c r="G1" s="33"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="32"/>
@@ -2217,428 +2210,428 @@
       <c r="D2" s="32"/>
       <c r="E2" s="32"/>
       <c r="F2" s="32"/>
-      <c r="G2" s="33"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="34" t="s">
+      <c r="G2" s="39"/>
+    </row>
+    <row r="3" ht="15" spans="1:7">
+      <c r="A3" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="33"/>
+      <c r="G3" s="39"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="33"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="37" t="s">
+      <c r="G4" s="39"/>
+    </row>
+    <row r="5" ht="15" spans="1:7">
+      <c r="A5" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="33"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="37" t="s">
+      <c r="F5" s="41"/>
+      <c r="G5" s="39"/>
+    </row>
+    <row r="6" ht="15" spans="1:7">
+      <c r="A6" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="38"/>
-      <c r="G6" s="33"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="37" t="s">
+      <c r="F6" s="41"/>
+      <c r="G6" s="39"/>
+    </row>
+    <row r="7" ht="15" spans="1:7">
+      <c r="A7" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="33"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="37" t="s">
+      <c r="F7" s="41"/>
+      <c r="G7" s="39"/>
+    </row>
+    <row r="8" ht="15" spans="1:7">
+      <c r="A8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="33"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="37" t="s">
+      <c r="F8" s="41"/>
+      <c r="G8" s="39"/>
+    </row>
+    <row r="9" ht="15" spans="1:7">
+      <c r="A9" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="38"/>
-      <c r="G9" s="33"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="37" t="s">
+      <c r="F9" s="41"/>
+      <c r="G9" s="39"/>
+    </row>
+    <row r="10" ht="15" spans="1:7">
+      <c r="A10" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="33"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="37" t="s">
+      <c r="F10" s="41"/>
+      <c r="G10" s="39"/>
+    </row>
+    <row r="11" ht="15" spans="1:7">
+      <c r="A11" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="33"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="37" t="s">
+      <c r="F11" s="41"/>
+      <c r="G11" s="39"/>
+    </row>
+    <row r="12" ht="15" spans="1:7">
+      <c r="A12" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="38"/>
-      <c r="G12" s="33"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="39" t="s">
+      <c r="F12" s="41"/>
+      <c r="G12" s="39"/>
+    </row>
+    <row r="13" ht="15" spans="1:7">
+      <c r="A13" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="38"/>
-      <c r="G13" s="33"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="39" t="s">
+      <c r="F13" s="41"/>
+      <c r="G13" s="39"/>
+    </row>
+    <row r="14" ht="15" spans="1:7">
+      <c r="A14" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="33"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="37" t="s">
+      <c r="F14" s="41"/>
+      <c r="G14" s="39"/>
+    </row>
+    <row r="15" ht="15" spans="1:7">
+      <c r="A15" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="33"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="37" t="s">
+      <c r="F15" s="41"/>
+      <c r="G15" s="39"/>
+    </row>
+    <row r="16" ht="15" spans="1:7">
+      <c r="A16" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="33"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="37" t="s">
+      <c r="F16" s="41"/>
+      <c r="G16" s="39"/>
+    </row>
+    <row r="17" ht="15" spans="1:7">
+      <c r="A17" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="38"/>
-      <c r="G17" s="33"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="37" t="s">
+      <c r="F17" s="41"/>
+      <c r="G17" s="39"/>
+    </row>
+    <row r="18" ht="15" spans="1:7">
+      <c r="A18" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="37" t="s">
+      <c r="E18" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="33"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="37" t="s">
+      <c r="F18" s="41"/>
+      <c r="G18" s="39"/>
+    </row>
+    <row r="19" ht="15" spans="1:7">
+      <c r="A19" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="38"/>
-      <c r="G19" s="33"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="37" t="s">
+      <c r="F19" s="41"/>
+      <c r="G19" s="39"/>
+    </row>
+    <row r="20" ht="15" spans="1:7">
+      <c r="A20" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="37" t="s">
+      <c r="E20" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="40"/>
-      <c r="G20" s="33"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="37" t="s">
+      <c r="F20" s="37"/>
+      <c r="G20" s="39"/>
+    </row>
+    <row r="21" ht="15" spans="1:7">
+      <c r="A21" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="D21" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="37" t="s">
+      <c r="E21" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="40"/>
-      <c r="G21" s="33"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="33"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="39"/>
+    </row>
+    <row r="22" ht="15" spans="1:7">
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="39"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="33"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="39"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="41"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="33"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="39"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="33"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="39"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="41"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="33"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="39"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2667,7 +2660,7 @@
     <col min="5" max="5" width="14.775" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:21">
+    <row r="1" ht="27" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -2710,23 +2703,23 @@
       <c r="P1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
     </row>
     <row r="2" ht="22.5" spans="1:21">
       <c r="A2" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>71</v>
@@ -2743,19 +2736,19 @@
       <c r="L2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13" t="s">
+      <c r="M2" s="19"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="Q2" s="23"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+    </row>
+    <row r="3" ht="16.5" spans="1:21">
       <c r="A3" s="4" t="s">
         <v>74</v>
       </c>
@@ -2770,17 +2763,17 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="24"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="26"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" ht="16.5" spans="1:21">
       <c r="A4" s="6" t="s">
         <v>75</v>
       </c>
@@ -2797,17 +2790,17 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="24"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="26"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" ht="16.5" spans="1:21">
       <c r="A5" s="7" t="s">
         <v>77</v>
       </c>
@@ -2828,11 +2821,11 @@
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:21">
       <c r="A6" s="1" t="s">
         <v>78</v>
       </c>
@@ -2847,21 +2840,21 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:21">
       <c r="A7" s="9" t="s">
         <v>81</v>
       </c>
@@ -2911,19 +2904,19 @@
       <c r="H8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="10" t="s">
@@ -2946,26 +2939,26 @@
         <v>71</v>
       </c>
       <c r="H9" s="10"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="10" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>91</v>
@@ -2979,19 +2972,19 @@
         <v>113</v>
       </c>
       <c r="H10" s="10"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
     </row>
     <row r="11" ht="24" customHeight="1" spans="1:21">
       <c r="A11" s="10" t="s">
@@ -3012,19 +3005,19 @@
         <v>113</v>
       </c>
       <c r="H11" s="10"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="10" t="s">
@@ -3045,19 +3038,19 @@
         <v>113</v>
       </c>
       <c r="H12" s="10"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="10" t="s">
@@ -3078,26 +3071,26 @@
         <v>113</v>
       </c>
       <c r="H13" s="10"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="10" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>91</v>
@@ -3111,26 +3104,26 @@
         <v>113</v>
       </c>
       <c r="H14" s="10"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="10" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>91</v>
@@ -3144,26 +3137,26 @@
         <v>113</v>
       </c>
       <c r="H15" s="10"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="10" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>91</v>
@@ -3180,10 +3173,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="10" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>91</v>
@@ -3200,10 +3193,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>91</v>
@@ -3220,10 +3213,10 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="10" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>91</v>
@@ -3238,10 +3231,10 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>91</v>
@@ -3379,17 +3372,8 @@
     <mergeCell ref="A7:U7"/>
   </mergeCells>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 I2:J2 E9:E15 G10:G15 H3:H4 L2:L4 S2:U4 N9:S15">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C26">
-      <formula1>"String,Integer,BigDecimal,LocalDate,LocalDateTime"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K4">
-      <formula1>"1,2,3,4,5"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4">
-      <formula1>"List,Info"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N4">
+      <formula1>"同步单层,异步单层,异步多层"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:L15">
       <formula1>"文本框,选择框,单选,多选,文本域,日期,搜索框,树图"</formula1>
@@ -3397,11 +3381,20 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K9:K15">
       <formula1>"左对齐,居中,右对齐"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 I2:J2 E9:E15 G10:G15 H3:H4 L2:L4 S2:U4 N9:S15">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K4">
+      <formula1>"1,2,3,4,5"</formula1>
+    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G9">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N4">
-      <formula1>"同步单层,异步单层,异步多层"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4">
+      <formula1>"List,Info"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C26">
+      <formula1>"String,Integer,BigDecimal,LocalDate,LocalDateTime"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3413,10 +3406,10 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U30"/>
+  <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="$A17:$XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3427,7 +3420,7 @@
     <col min="5" max="5" width="14.775" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:21">
+    <row r="1" ht="27" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -3470,23 +3463,23 @@
       <c r="P1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
     </row>
     <row r="2" ht="22.5" spans="1:21">
       <c r="A2" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>71</v>
@@ -3503,19 +3496,19 @@
       <c r="L2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13" t="s">
+      <c r="M2" s="19"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="Q2" s="23"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+    </row>
+    <row r="3" ht="16.5" spans="1:21">
       <c r="A3" s="4" t="s">
         <v>74</v>
       </c>
@@ -3530,17 +3523,17 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="24"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="26"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" ht="16.5" spans="1:21">
       <c r="A4" s="6" t="s">
         <v>75</v>
       </c>
@@ -3557,17 +3550,17 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="24"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="26"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" ht="16.5" spans="1:21">
       <c r="A5" s="7" t="s">
         <v>77</v>
       </c>
@@ -3588,11 +3581,11 @@
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:21">
       <c r="A6" s="1" t="s">
         <v>78</v>
       </c>
@@ -3607,21 +3600,21 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:21">
       <c r="A7" s="9" t="s">
         <v>81</v>
       </c>
@@ -3671,26 +3664,26 @@
       <c r="H8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="10" t="s">
         <v>153</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>91</v>
@@ -3706,23 +3699,23 @@
         <v>71</v>
       </c>
       <c r="H9" s="10"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>242</v>
@@ -3739,19 +3732,19 @@
         <v>71</v>
       </c>
       <c r="H10" s="10"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
     </row>
     <row r="11" ht="24" customHeight="1" spans="1:21">
       <c r="A11" s="10" t="s">
@@ -3772,19 +3765,19 @@
         <v>113</v>
       </c>
       <c r="H11" s="10"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="10" t="s">
@@ -3805,19 +3798,19 @@
         <v>113</v>
       </c>
       <c r="H12" s="10"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="10" t="s">
@@ -3838,26 +3831,26 @@
         <v>113</v>
       </c>
       <c r="H13" s="10"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="10" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>91</v>
@@ -3871,23 +3864,23 @@
         <v>113</v>
       </c>
       <c r="H14" s="10"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>107</v>
@@ -3904,26 +3897,26 @@
         <v>113</v>
       </c>
       <c r="H15" s="10"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="10" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>91</v>
@@ -3938,56 +3931,69 @@
       </c>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:21">
       <c r="A17" s="10" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="10" t="s">
-        <v>113</v>
-      </c>
+      <c r="G17" s="10"/>
       <c r="H17" s="10"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="10" t="s">
         <v>288</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>210</v>
+        <v>289</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
+      <c r="G18" s="10" t="s">
+        <v>113</v>
+      </c>
       <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>290</v>
+        <v>210</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>91</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -3999,7 +4005,7 @@
         <v>291</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>212</v>
+        <v>292</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>91</v>
@@ -4014,16 +4020,16 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="10" t="s">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>256</v>
+        <v>212</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>91</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -4032,16 +4038,16 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="10" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>91</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>294</v>
+        <v>118</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
@@ -4050,16 +4056,16 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="10" t="s">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>248</v>
+        <v>295</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>91</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>92</v>
+        <v>296</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
@@ -4068,10 +4074,10 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="10" t="s">
-        <v>131</v>
+        <v>247</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>132</v>
+        <v>248</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>91</v>
@@ -4086,16 +4092,16 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
@@ -4104,16 +4110,16 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
@@ -4122,10 +4128,10 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>91</v>
@@ -4140,16 +4146,16 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
@@ -4158,24 +4164,42 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="11" t="s">
+    <row r="30" spans="1:8">
+      <c r="A30" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="11" t="s">
         <v>149</v>
       </c>
     </row>
@@ -4191,29 +4215,29 @@
     <mergeCell ref="A7:U7"/>
   </mergeCells>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 I2:J2 E9:E15 G9:G15 H3:H4 L2:L4 S2:U4 N9:S15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N4">
+      <formula1>"同步单层,异步单层,异步多层"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4">
+      <formula1>"List,Info"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17 C9:C16 C18:C30">
+      <formula1>"String,Integer,BigDecimal,LocalDate,LocalDateTime"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K17 K9:K15">
+      <formula1>"左对齐,居中,右对齐"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K4">
+      <formula1>"1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 I2:J2 E17 G17 N17:S17 E9:E15 G9:G15 H3:H4 L2:L4 S2:U4 N9:S15">
       <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:L15">
-      <formula1>"文本框,选择框,单选,多选,文本域,日期,搜索框,树图"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K9:K15">
-      <formula1>"左对齐,居中,右对齐"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C29">
-      <formula1>"String,Integer,BigDecimal,LocalDate,LocalDateTime"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K4">
-      <formula1>"1,2,3,4,5"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4">
-      <formula1>"List,Info"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N4">
-      <formula1>"同步单层,异步单层,异步多层"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L17 L9:L15">
+      <formula1>"文本框,选择框,单选,多选,文本域,日期,搜索框,树图"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4239,7 +4263,7 @@
     <col min="5" max="5" width="14.775" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:21">
+    <row r="1" ht="27" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -4282,13 +4306,13 @@
       <c r="P1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+    </row>
+    <row r="2" ht="16.5" spans="1:21">
       <c r="A2" s="2" t="s">
         <v>68</v>
       </c>
@@ -4315,19 +4339,19 @@
       <c r="L2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13" t="s">
+      <c r="M2" s="19"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="Q2" s="23"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+    </row>
+    <row r="3" ht="16.5" spans="1:21">
       <c r="A3" s="4" t="s">
         <v>74</v>
       </c>
@@ -4342,17 +4366,17 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="24"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="26"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" ht="16.5" spans="1:21">
       <c r="A4" s="6" t="s">
         <v>75</v>
       </c>
@@ -4369,17 +4393,17 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="24"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="26"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" ht="16.5" spans="1:21">
       <c r="A5" s="7" t="s">
         <v>77</v>
       </c>
@@ -4400,11 +4424,11 @@
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:21">
       <c r="A6" s="1" t="s">
         <v>78</v>
       </c>
@@ -4419,21 +4443,21 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:21">
       <c r="A7" s="9" t="s">
         <v>81</v>
       </c>
@@ -4483,19 +4507,19 @@
       <c r="H8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="10" t="s">
@@ -4517,20 +4541,20 @@
       <c r="G9" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="30"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="10" t="s">
@@ -4550,20 +4574,20 @@
       <c r="G10" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="30"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="10" t="s">
@@ -4583,20 +4607,20 @@
       <c r="G11" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H11" s="30"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
     </row>
     <row r="12" ht="24" customHeight="1" spans="1:21">
       <c r="A12" s="10" t="s">
@@ -4616,20 +4640,20 @@
       <c r="G12" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="10" t="s">
@@ -4649,20 +4673,20 @@
       <c r="G13" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="10" t="s">
@@ -4682,20 +4706,20 @@
       <c r="G14" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="10" t="s">
@@ -4715,20 +4739,20 @@
       <c r="G15" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H15" s="30"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="10" t="s">
@@ -4748,20 +4772,20 @@
       <c r="G16" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="10" t="s">
@@ -4781,7 +4805,7 @@
       <c r="G17" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="H17" s="30"/>
+      <c r="H17" s="31"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="10" t="s">
@@ -4801,7 +4825,7 @@
       <c r="G18" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H18" s="30"/>
+      <c r="H18" s="31"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="10" t="s">
@@ -4821,7 +4845,7 @@
       <c r="G19" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="H19" s="30"/>
+      <c r="H19" s="31"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="10" t="s">
@@ -4841,7 +4865,7 @@
       <c r="G20" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H20" s="30"/>
+      <c r="H20" s="31"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="10" t="s">
@@ -4861,7 +4885,7 @@
       <c r="G21" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="H21" s="30"/>
+      <c r="H21" s="31"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="10" t="s">
@@ -4881,7 +4905,7 @@
       <c r="G22" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H22" s="30"/>
+      <c r="H22" s="31"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="10" t="s">
@@ -4901,7 +4925,7 @@
       <c r="G23" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H23" s="30"/>
+      <c r="H23" s="31"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="10" t="s">
@@ -4921,7 +4945,7 @@
       <c r="G24" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="H24" s="30"/>
+      <c r="H24" s="31"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="10" t="s">
@@ -4936,12 +4960,12 @@
       <c r="D25" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30" t="s">
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="H25" s="30"/>
+      <c r="H25" s="31"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="10" t="s">
@@ -4956,12 +4980,12 @@
       <c r="D26" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30" t="s">
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="H26" s="30"/>
+      <c r="H26" s="31"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="10" t="s">
@@ -4976,12 +5000,12 @@
       <c r="D27" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30" t="s">
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="H27" s="30"/>
+      <c r="H27" s="31"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="10" t="s">
@@ -4996,12 +5020,12 @@
       <c r="D28" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30" t="s">
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="H28" s="30"/>
+      <c r="H28" s="31"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="10" t="s">
@@ -5016,12 +5040,12 @@
       <c r="D29" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30" t="s">
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="H29" s="30"/>
+      <c r="H29" s="31"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="10" t="s">
@@ -5036,12 +5060,12 @@
       <c r="D30" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30" t="s">
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="H30" s="30"/>
+      <c r="H30" s="31"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="10" t="s">
@@ -5056,12 +5080,12 @@
       <c r="D31" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30" t="s">
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="H31" s="30"/>
+      <c r="H31" s="31"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="10" t="s">
@@ -5076,13 +5100,13 @@
       <c r="D32" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="30" t="s">
         <v>149</v>
       </c>
     </row>
@@ -5098,29 +5122,29 @@
     <mergeCell ref="A7:U7"/>
   </mergeCells>
   <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N4">
+      <formula1>"同步单层,异步单层,异步多层"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4">
+      <formula1>"List,Info"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C9:C10 C12:C16">
+      <formula1>"String,Integer,BigDecimal"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K11 K9:K10 K12:K16">
+      <formula1>"左对齐,居中,右对齐"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K4">
+      <formula1>"1,2,3,4,5"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 I2:J2 E11 G11 N11:S11 E9:E10 E12:E16 G9:G10 G12:G16 H3:H4 L2:L4 S2:U4 N9:S10 N12:S16">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L11 L9:L10 L12:L16">
       <formula1>"文本框,选择框,单选,多选,文本域,日期,搜索框,树图"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K11 K9:K10 K12:K16">
-      <formula1>"左对齐,居中,右对齐"</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C9:C10 C12:C16">
-      <formula1>"String,Integer,BigDecimal"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K4">
-      <formula1>"1,2,3,4,5"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4">
-      <formula1>"List,Info"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N4">
-      <formula1>"同步单层,异步单层,异步多层"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5146,7 +5170,7 @@
     <col min="5" max="5" width="14.775" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:21">
+    <row r="1" ht="27" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -5189,11 +5213,11 @@
       <c r="P1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
     </row>
     <row r="2" ht="22.5" spans="1:21">
       <c r="A2" s="2" t="s">
@@ -5222,19 +5246,19 @@
       <c r="L2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13" t="s">
+      <c r="M2" s="19"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="Q2" s="23"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+    </row>
+    <row r="3" ht="16.5" spans="1:21">
       <c r="A3" s="4" t="s">
         <v>74</v>
       </c>
@@ -5249,17 +5273,17 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="24"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="26"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" ht="16.5" spans="1:21">
       <c r="A4" s="6" t="s">
         <v>75</v>
       </c>
@@ -5276,17 +5300,17 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="24"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="26"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" ht="16.5" spans="1:21">
       <c r="A5" s="7" t="s">
         <v>77</v>
       </c>
@@ -5307,11 +5331,11 @@
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:21">
       <c r="A6" s="1" t="s">
         <v>78</v>
       </c>
@@ -5326,21 +5350,21 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:21">
       <c r="A7" s="9" t="s">
         <v>81</v>
       </c>
@@ -5390,19 +5414,19 @@
       <c r="H8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="10" t="s">
@@ -5425,19 +5449,19 @@
         <v>71</v>
       </c>
       <c r="H9" s="10"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="10" t="s">
@@ -5458,19 +5482,19 @@
         <v>71</v>
       </c>
       <c r="H10" s="10"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
     </row>
     <row r="11" ht="24" customHeight="1" spans="1:21">
       <c r="A11" s="10" t="s">
@@ -5491,19 +5515,19 @@
         <v>71</v>
       </c>
       <c r="H11" s="10"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="10" t="s">
@@ -5524,19 +5548,19 @@
         <v>71</v>
       </c>
       <c r="H12" s="10"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="10" t="s">
@@ -5557,19 +5581,19 @@
         <v>71</v>
       </c>
       <c r="H13" s="10"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="10" t="s">
@@ -5590,19 +5614,19 @@
         <v>71</v>
       </c>
       <c r="H14" s="10"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="10" t="s">
@@ -5623,19 +5647,19 @@
         <v>113</v>
       </c>
       <c r="H15" s="10"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="10" t="s">
@@ -5794,8 +5818,8 @@
     <mergeCell ref="A7:U7"/>
   </mergeCells>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 I2:J2 E9:E10 E11:E15 G9:G10 G11:G15 H3:H4 L2:L4 S2:U4 N9:S10 N11:S15">
-      <formula1>"是,否"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N4">
+      <formula1>"同步单层,异步单层,异步多层"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:L10 L11:L15">
       <formula1>"文本框,选择框,单选,多选,文本域,日期,搜索框,树图"</formula1>
@@ -5803,11 +5827,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K9:K10 K11:K15">
       <formula1>"左对齐,居中,右对齐"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 I2:J2 E9:E10 E11:E15 G9:G10 G11:G15 H3:H4 L2:L4 S2:U4 N9:S10 N11:S15">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8">
       <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C10 C11:C15">
-      <formula1>"String,Integer,BigDecimal"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K4">
       <formula1>"1,2,3,4,5"</formula1>
@@ -5815,8 +5839,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4">
       <formula1>"List,Info"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N4">
-      <formula1>"同步单层,异步单层,异步多层"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C10 C11:C15">
+      <formula1>"String,Integer,BigDecimal"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5842,7 +5866,7 @@
     <col min="5" max="5" width="14.775" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:21">
+    <row r="1" ht="27" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -5885,11 +5909,11 @@
       <c r="P1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
     </row>
     <row r="2" ht="22.5" spans="1:21">
       <c r="A2" s="2" t="s">
@@ -5918,19 +5942,19 @@
       <c r="L2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13" t="s">
+      <c r="M2" s="19"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="Q2" s="23"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+    </row>
+    <row r="3" ht="16.5" spans="1:21">
       <c r="A3" s="4" t="s">
         <v>74</v>
       </c>
@@ -5945,17 +5969,17 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="24"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="26"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" ht="16.5" spans="1:21">
       <c r="A4" s="6" t="s">
         <v>75</v>
       </c>
@@ -5972,17 +5996,17 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="24"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="26"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" ht="16.5" spans="1:21">
       <c r="A5" s="7" t="s">
         <v>77</v>
       </c>
@@ -6003,11 +6027,11 @@
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:21">
       <c r="A6" s="1" t="s">
         <v>78</v>
       </c>
@@ -6022,21 +6046,21 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:21">
       <c r="A7" s="9" t="s">
         <v>81</v>
       </c>
@@ -6086,19 +6110,19 @@
       <c r="H8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
     </row>
     <row r="9" ht="24" customHeight="1" spans="1:21">
       <c r="A9" s="10" t="s">
@@ -6121,19 +6145,19 @@
         <v>71</v>
       </c>
       <c r="H9" s="10"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="10" t="s">
@@ -6154,19 +6178,19 @@
         <v>71</v>
       </c>
       <c r="H10" s="10"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="10" t="s">
@@ -6187,19 +6211,19 @@
         <v>71</v>
       </c>
       <c r="H11" s="10"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="10" t="s">
@@ -6220,19 +6244,19 @@
         <v>71</v>
       </c>
       <c r="H12" s="10"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="10" t="s">
@@ -6253,19 +6277,19 @@
         <v>71</v>
       </c>
       <c r="H13" s="10"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="10" t="s">
@@ -6286,19 +6310,19 @@
         <v>71</v>
       </c>
       <c r="H14" s="10"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="10" t="s">
@@ -6319,19 +6343,19 @@
         <v>113</v>
       </c>
       <c r="H15" s="10"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="10" t="s">
@@ -6450,17 +6474,8 @@
     <mergeCell ref="A7:U7"/>
   </mergeCells>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 I2:J2 E9:E11 E12:E15 G10:G11 G12:G15 H3:H4 L2:L4 S2:U4 N9:S11 N12:S15">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C11 C12:C15">
-      <formula1>"String,Integer,BigDecimal"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K4">
-      <formula1>"1,2,3,4,5"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4">
-      <formula1>"List,Info"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N4">
+      <formula1>"同步单层,异步单层,异步多层"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:L11 L12:L15">
       <formula1>"文本框,选择框,单选,多选,文本域,日期,搜索框,树图"</formula1>
@@ -6468,11 +6483,20 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K9:K11 K12:K15">
       <formula1>"左对齐,居中,右对齐"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 I2:J2 E9:E11 E12:E15 G10:G11 G12:G15 H3:H4 L2:L4 S2:U4 N9:S11 N12:S15">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K4">
+      <formula1>"1,2,3,4,5"</formula1>
+    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G9">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N4">
-      <formula1>"同步单层,异步单层,异步多层"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4">
+      <formula1>"List,Info"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C11 C12:C15">
+      <formula1>"String,Integer,BigDecimal"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6498,7 +6522,7 @@
     <col min="5" max="5" width="14.775" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:21">
+    <row r="1" ht="27" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -6541,13 +6565,13 @@
       <c r="P1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-    </row>
-    <row r="2" spans="1:21">
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+    </row>
+    <row r="2" ht="16.5" spans="1:21">
       <c r="A2" s="2" t="s">
         <v>182</v>
       </c>
@@ -6574,19 +6598,19 @@
       <c r="L2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13" t="s">
+      <c r="M2" s="19"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="Q2" s="23"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+    </row>
+    <row r="3" ht="16.5" spans="1:21">
       <c r="A3" s="4" t="s">
         <v>74</v>
       </c>
@@ -6601,17 +6625,17 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="24"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="26"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" ht="16.5" spans="1:21">
       <c r="A4" s="6" t="s">
         <v>75</v>
       </c>
@@ -6628,17 +6652,17 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="24"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="26"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" ht="16.5" spans="1:21">
       <c r="A5" s="7" t="s">
         <v>77</v>
       </c>
@@ -6659,11 +6683,11 @@
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:21">
       <c r="A6" s="1" t="s">
         <v>78</v>
       </c>
@@ -6678,21 +6702,21 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:21">
       <c r="A7" s="9" t="s">
         <v>81</v>
       </c>
@@ -6742,19 +6766,19 @@
       <c r="H8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="10" t="s">
@@ -6777,19 +6801,19 @@
         <v>71</v>
       </c>
       <c r="H9" s="10"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="10" t="s">
@@ -6810,19 +6834,19 @@
         <v>71</v>
       </c>
       <c r="H10" s="10"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
     </row>
     <row r="11" ht="24" customHeight="1" spans="1:21">
       <c r="A11" s="10" t="s">
@@ -6843,19 +6867,19 @@
         <v>71</v>
       </c>
       <c r="H11" s="10"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="10" t="s">
@@ -6876,19 +6900,19 @@
         <v>71</v>
       </c>
       <c r="H12" s="10"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="10" t="s">
@@ -6909,19 +6933,19 @@
         <v>71</v>
       </c>
       <c r="H13" s="10"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="10" t="s">
@@ -6942,19 +6966,19 @@
         <v>71</v>
       </c>
       <c r="H14" s="10"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="10" t="s">
@@ -6975,19 +6999,19 @@
         <v>113</v>
       </c>
       <c r="H15" s="10"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="10" t="s">
@@ -7008,19 +7032,19 @@
         <v>113</v>
       </c>
       <c r="H16" s="10"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="10" t="s">
@@ -7211,8 +7235,8 @@
     <mergeCell ref="A7:U7"/>
   </mergeCells>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 I2:J2 E9:E10 E11:E16 G9:G10 G11:G16 H3:H4 L2:L4 S2:U4 N9:S10 N11:S16">
-      <formula1>"是,否"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N4">
+      <formula1>"同步单层,异步单层,异步多层"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:L10 L11:L16">
       <formula1>"文本框,选择框,单选,多选,文本域,日期,搜索框,树图"</formula1>
@@ -7220,11 +7244,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K9:K10 K11:K16">
       <formula1>"左对齐,居中,右对齐"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 I2:J2 E9:E10 E11:E16 G9:G10 G11:G16 H3:H4 L2:L4 S2:U4 N9:S10 N11:S16">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8">
       <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C10 C11:C16">
-      <formula1>"String,Integer,BigDecimal"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K4">
       <formula1>"1,2,3,4,5"</formula1>
@@ -7232,8 +7256,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4">
       <formula1>"List,Info"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N4">
-      <formula1>"同步单层,异步单层,异步多层"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C10 C11:C16">
+      <formula1>"String,Integer,BigDecimal"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7259,7 +7283,7 @@
     <col min="5" max="5" width="14.775" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:21">
+    <row r="1" ht="27" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -7302,11 +7326,11 @@
       <c r="P1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
     </row>
     <row r="2" ht="22.5" spans="1:21">
       <c r="A2" s="2" t="s">
@@ -7335,19 +7359,19 @@
       <c r="L2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13" t="s">
+      <c r="M2" s="19"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="Q2" s="23"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+    </row>
+    <row r="3" ht="16.5" spans="1:21">
       <c r="A3" s="4" t="s">
         <v>74</v>
       </c>
@@ -7362,17 +7386,17 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="24"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="26"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" ht="16.5" spans="1:21">
       <c r="A4" s="6" t="s">
         <v>75</v>
       </c>
@@ -7389,17 +7413,17 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="24"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="26"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" ht="16.5" spans="1:21">
       <c r="A5" s="7" t="s">
         <v>77</v>
       </c>
@@ -7420,11 +7444,11 @@
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:21">
       <c r="A6" s="1" t="s">
         <v>78</v>
       </c>
@@ -7439,21 +7463,21 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:21">
       <c r="A7" s="9" t="s">
         <v>81</v>
       </c>
@@ -7503,19 +7527,19 @@
       <c r="H8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="10" t="s">
@@ -7538,19 +7562,19 @@
         <v>71</v>
       </c>
       <c r="H9" s="10"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="10" t="s">
@@ -7571,19 +7595,19 @@
         <v>71</v>
       </c>
       <c r="H10" s="10"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
     </row>
     <row r="11" ht="24" customHeight="1" spans="1:21">
       <c r="A11" s="10" t="s">
@@ -7604,19 +7628,19 @@
         <v>71</v>
       </c>
       <c r="H11" s="10"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="10" t="s">
@@ -7637,19 +7661,19 @@
         <v>71</v>
       </c>
       <c r="H12" s="10"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="10" t="s">
@@ -7670,19 +7694,19 @@
         <v>71</v>
       </c>
       <c r="H13" s="10"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="10" t="s">
@@ -7703,19 +7727,19 @@
         <v>71</v>
       </c>
       <c r="H14" s="10"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="10" t="s">
@@ -7736,19 +7760,19 @@
         <v>113</v>
       </c>
       <c r="H15" s="10"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="10" t="s">
@@ -7769,19 +7793,19 @@
         <v>113</v>
       </c>
       <c r="H16" s="10"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="10" t="s">
@@ -7860,8 +7884,8 @@
     <mergeCell ref="A7:U7"/>
   </mergeCells>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 I2:J2 E9:E16 G9:G16 H3:H4 L2:L4 S2:U4 N9:S16">
-      <formula1>"是,否"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N4">
+      <formula1>"同步单层,异步单层,异步多层"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:L16">
       <formula1>"文本框,选择框,单选,多选,文本域,日期,搜索框,树图"</formula1>
@@ -7869,11 +7893,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K9:K16">
       <formula1>"左对齐,居中,右对齐"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 I2:J2 E9:E16 G9:G16 H3:H4 L2:L4 S2:U4 N9:S16">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8">
       <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C16">
-      <formula1>"String,Integer,BigDecimal"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K4">
       <formula1>"1,2,3,4,5"</formula1>
@@ -7881,8 +7905,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4">
       <formula1>"List,Info"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N4">
-      <formula1>"同步单层,异步单层,异步多层"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C16">
+      <formula1>"String,Integer,BigDecimal"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7908,7 +7932,7 @@
     <col min="5" max="5" width="14.775" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:21">
+    <row r="1" ht="27" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -7951,11 +7975,11 @@
       <c r="P1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
     </row>
     <row r="2" ht="22.5" spans="1:21">
       <c r="A2" s="2" t="s">
@@ -7984,19 +8008,19 @@
       <c r="L2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13" t="s">
+      <c r="M2" s="19"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="Q2" s="23"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+    </row>
+    <row r="3" ht="16.5" spans="1:21">
       <c r="A3" s="4" t="s">
         <v>74</v>
       </c>
@@ -8011,17 +8035,17 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="24"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="26"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" ht="16.5" spans="1:21">
       <c r="A4" s="6" t="s">
         <v>75</v>
       </c>
@@ -8038,17 +8062,17 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="24"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="26"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" ht="16.5" spans="1:21">
       <c r="A5" s="7" t="s">
         <v>77</v>
       </c>
@@ -8069,11 +8093,11 @@
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:21">
       <c r="A6" s="1" t="s">
         <v>78</v>
       </c>
@@ -8088,21 +8112,21 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:21">
       <c r="A7" s="9" t="s">
         <v>81</v>
       </c>
@@ -8152,19 +8176,19 @@
       <c r="H8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
     </row>
     <row r="9" ht="24" customHeight="1" spans="1:21">
       <c r="A9" s="10" t="s">
@@ -8187,19 +8211,19 @@
         <v>71</v>
       </c>
       <c r="H9" s="10"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="10" t="s">
@@ -8220,19 +8244,19 @@
         <v>71</v>
       </c>
       <c r="H10" s="10"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="10" t="s">
@@ -8253,19 +8277,19 @@
         <v>71</v>
       </c>
       <c r="H11" s="10"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="10" t="s">
@@ -8286,19 +8310,19 @@
         <v>71</v>
       </c>
       <c r="H12" s="10"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="10" t="s">
@@ -8319,19 +8343,19 @@
         <v>113</v>
       </c>
       <c r="H13" s="10"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="10" t="s">
@@ -8352,19 +8376,19 @@
         <v>113</v>
       </c>
       <c r="H14" s="10"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="10" t="s">
@@ -8385,19 +8409,19 @@
         <v>113</v>
       </c>
       <c r="H15" s="10"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="10" t="s">
@@ -8584,8 +8608,8 @@
     <mergeCell ref="A7:U7"/>
   </mergeCells>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 I2:J2 E9:E11 E12:E15 G9:G11 G12:G15 H3:H4 L2:L4 S2:U4 N9:S11 N12:S15">
-      <formula1>"是,否"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N4">
+      <formula1>"同步单层,异步单层,异步多层"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:L11 L12:L15">
       <formula1>"文本框,选择框,单选,多选,文本域,日期,搜索框,树图"</formula1>
@@ -8593,11 +8617,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K9:K11 K12:K15">
       <formula1>"左对齐,居中,右对齐"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 I2:J2 E9:E11 E12:E15 G9:G11 G12:G15 H3:H4 L2:L4 S2:U4 N9:S11 N12:S15">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8">
       <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C11 C12:C15">
-      <formula1>"String,Integer,BigDecimal"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K4">
       <formula1>"1,2,3,4,5"</formula1>
@@ -8605,8 +8629,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4">
       <formula1>"List,Info"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N4">
-      <formula1>"同步单层,异步单层,异步多层"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C11 C12:C15">
+      <formula1>"String,Integer,BigDecimal"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8632,7 +8656,7 @@
     <col min="5" max="5" width="14.775" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:21">
+    <row r="1" ht="27" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -8675,11 +8699,11 @@
       <c r="P1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
     </row>
     <row r="2" ht="22.5" spans="1:21">
       <c r="A2" s="2" t="s">
@@ -8708,19 +8732,19 @@
       <c r="L2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13" t="s">
+      <c r="M2" s="19"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="Q2" s="23"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+    </row>
+    <row r="3" ht="16.5" spans="1:21">
       <c r="A3" s="4" t="s">
         <v>74</v>
       </c>
@@ -8735,17 +8759,17 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="24"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="26"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" ht="16.5" spans="1:21">
       <c r="A4" s="6" t="s">
         <v>75</v>
       </c>
@@ -8762,17 +8786,17 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="24"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="26"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" ht="16.5" spans="1:21">
       <c r="A5" s="7" t="s">
         <v>77</v>
       </c>
@@ -8793,11 +8817,11 @@
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:21">
       <c r="A6" s="1" t="s">
         <v>78</v>
       </c>
@@ -8812,21 +8836,21 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:21">
       <c r="A7" s="9" t="s">
         <v>81</v>
       </c>
@@ -8876,19 +8900,19 @@
       <c r="H8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="10" t="s">
@@ -8911,19 +8935,19 @@
         <v>71</v>
       </c>
       <c r="H9" s="10"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="10" t="s">
@@ -8944,19 +8968,19 @@
         <v>71</v>
       </c>
       <c r="H10" s="10"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
     </row>
     <row r="11" ht="24" customHeight="1" spans="1:21">
       <c r="A11" s="10" t="s">
@@ -8975,19 +8999,19 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="10" t="s">
@@ -9006,19 +9030,19 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="10" t="s">
@@ -9037,19 +9061,19 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="10" t="s">
@@ -9070,19 +9094,19 @@
         <v>113</v>
       </c>
       <c r="H14" s="10"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="10" t="s">
@@ -9103,19 +9127,19 @@
         <v>113</v>
       </c>
       <c r="H15" s="10"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="10" t="s">
@@ -9174,17 +9198,8 @@
     <mergeCell ref="A7:U7"/>
   </mergeCells>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 I2:J2 G10 E9:E10 E11:E15 G11:G15 H3:H4 L2:L4 S2:U4 N9:S10 N11:S15">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C10 C11:C17">
-      <formula1>"String,Integer,BigDecimal,LocalDate,LocalDateTime"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K4">
-      <formula1>"1,2,3,4,5"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4">
-      <formula1>"List,Info"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N4">
+      <formula1>"同步单层,异步单层,异步多层"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:L10 L11:L15">
       <formula1>"文本框,选择框,单选,多选,文本域,日期,搜索框,树图"</formula1>
@@ -9192,11 +9207,20 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K9:K10 K11:K15">
       <formula1>"左对齐,居中,右对齐"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 I2:J2 G10 E9:E10 E11:E15 G11:G15 H3:H4 L2:L4 S2:U4 N9:S10 N11:S15">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K4">
+      <formula1>"1,2,3,4,5"</formula1>
+    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8:G9">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N4">
-      <formula1>"同步单层,异步单层,异步多层"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4">
+      <formula1>"List,Info"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C10 C11:C17">
+      <formula1>"String,Integer,BigDecimal,LocalDate,LocalDateTime"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9208,10 +9232,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A16" sqref="$A16:$XFD16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A17" sqref="$A17:$XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -9222,7 +9246,7 @@
     <col min="5" max="5" width="14.775" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="1:21">
+    <row r="1" ht="27" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -9265,11 +9289,11 @@
       <c r="P1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
     </row>
     <row r="2" ht="22.5" spans="1:21">
       <c r="A2" s="2" t="s">
@@ -9298,19 +9322,19 @@
       <c r="L2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13" t="s">
+      <c r="M2" s="19"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="Q2" s="23"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+    </row>
+    <row r="3" ht="16.5" spans="1:21">
       <c r="A3" s="4" t="s">
         <v>74</v>
       </c>
@@ -9325,17 +9349,17 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="24"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="26"/>
       <c r="S3" s="5"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" ht="16.5" spans="1:21">
       <c r="A4" s="6" t="s">
         <v>75</v>
       </c>
@@ -9352,17 +9376,17 @@
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="24"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="26"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" ht="16.5" spans="1:21">
       <c r="A5" s="7" t="s">
         <v>77</v>
       </c>
@@ -9383,11 +9407,11 @@
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25"/>
-      <c r="U5" s="25"/>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+    </row>
+    <row r="6" ht="16.5" spans="1:21">
       <c r="A6" s="1" t="s">
         <v>78</v>
       </c>
@@ -9402,21 +9426,21 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+    </row>
+    <row r="7" ht="16.5" spans="1:21">
       <c r="A7" s="9" t="s">
         <v>81</v>
       </c>
@@ -9466,19 +9490,19 @@
       <c r="H8" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="10" t="s">
@@ -9502,19 +9526,19 @@
         <v>否</v>
       </c>
       <c r="H9" s="10"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="10" t="s">
@@ -9536,19 +9560,19 @@
         <v>否</v>
       </c>
       <c r="H10" s="10"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
     </row>
     <row r="11" ht="24" customHeight="1" spans="1:21">
       <c r="A11" s="10" t="s">
@@ -9570,19 +9594,19 @@
         <v>否</v>
       </c>
       <c r="H11" s="10"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="10" t="s">
@@ -9601,19 +9625,19 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="10" t="s">
@@ -9632,19 +9656,19 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="10" t="s">
@@ -9665,19 +9689,19 @@
         <v>113</v>
       </c>
       <c r="H14" s="10"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="10" t="s">
@@ -9698,19 +9722,19 @@
         <v>113</v>
       </c>
       <c r="H15" s="10"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="10" t="s">
@@ -9729,21 +9753,21 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="10" t="s">
         <v>251</v>
       </c>
@@ -9754,14 +9778,25 @@
         <v>91</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
-      <c r="G17" s="10" t="s">
-        <v>113</v>
-      </c>
+      <c r="G17" s="10"/>
       <c r="H17" s="10"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="10" t="s">
@@ -9771,10 +9806,10 @@
         <v>254</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -9791,28 +9826,30 @@
         <v>256</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
+      <c r="G19" s="10" t="s">
+        <v>113</v>
+      </c>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="10" t="s">
-        <v>131</v>
+        <v>257</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>132</v>
+        <v>258</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>91</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
@@ -9821,16 +9858,16 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -9839,16 +9876,16 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
@@ -9857,10 +9894,10 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>91</v>
@@ -9875,16 +9912,16 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="10" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
@@ -9893,24 +9930,42 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="11" t="s">
+    <row r="26" spans="1:8">
+      <c r="A26" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="11" t="s">
         <v>149</v>
       </c>
     </row>
@@ -9926,29 +9981,29 @@
     <mergeCell ref="A7:U7"/>
   </mergeCells>
   <dataValidations count="8">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 I2:J2 E16 G16 N16:S16 E9:E15 G9:G15 H3:H4 L2:L4 S2:U4 N9:S15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N4">
+      <formula1>"同步单层,异步单层,异步多层"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4">
+      <formula1>"List,Info"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16 C17 C9:C15 C18:C26">
+      <formula1>"String,Integer,BigDecimal,LocalDate,LocalDateTime"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K16 K17 K9:K15">
+      <formula1>"左对齐,居中,右对齐"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K4">
+      <formula1>"1,2,3,4,5"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 I2:J2 E16 G16 N16:S16 E17 G17 N17:S17 E9:E15 G9:G15 H3:H4 L2:L4 S2:U4 N9:S15">
       <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L16 L9:L15">
-      <formula1>"文本框,选择框,单选,多选,文本域,日期,搜索框,树图"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K16 K9:K15">
-      <formula1>"左对齐,居中,右对齐"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G8">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16 C9:C15 C17:C25">
-      <formula1>"String,Integer,BigDecimal,LocalDate,LocalDateTime"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K4">
-      <formula1>"1,2,3,4,5"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4">
-      <formula1>"List,Info"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N4">
-      <formula1>"同步单层,异步单层,异步多层"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L16 L17 L9:L15">
+      <formula1>"文本框,选择框,单选,多选,文本域,日期,搜索框,树图"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
